--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IEMM\IEMM_MIG\IEMM_V58_10-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687BAF4-B5D2-4A13-9651-FB90E352799A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F88E9-4C73-4845-BF68-E9C86EA1C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TechSup" sheetId="4" r:id="rId1"/>
@@ -25,12 +25,59 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'EFD classification'!$H$3:$J$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TechSup!$F$3:$G$61</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mahmoud Mobir</author>
+  </authors>
+  <commentList>
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{E699EE90-56D9-4886-9B92-A6BC016AB6E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mahmoud Mobir:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12-6-2021
+added to track hydrogen production
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="303">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -822,13 +869,130 @@
   </si>
   <si>
     <t>Storage</t>
+  </si>
+  <si>
+    <t>S_H2P</t>
+  </si>
+  <si>
+    <t>S_H2P-All</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>S*H2*,ELCH2*</t>
+  </si>
+  <si>
+    <t>H2 prod-all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 prod </t>
+  </si>
+  <si>
+    <t>H2 prod (CCS)</t>
+  </si>
+  <si>
+    <t>H2 Prod Bio-all</t>
+  </si>
+  <si>
+    <t>H2 Prod Biomass</t>
+  </si>
+  <si>
+    <t>H2 Prod Biomass CCS</t>
+  </si>
+  <si>
+    <t>H2 Prod Coa-all</t>
+  </si>
+  <si>
+    <t>H2 Prod Coal</t>
+  </si>
+  <si>
+    <t>H2 Prod Coal CCS</t>
+  </si>
+  <si>
+    <t>H2 Prod Electricity</t>
+  </si>
+  <si>
+    <t>H2 Prod Gas-all</t>
+  </si>
+  <si>
+    <t>H2 Prod Gas</t>
+  </si>
+  <si>
+    <t>H2 Prod Gas CCS</t>
+  </si>
+  <si>
+    <t>H2 Prod Oil</t>
+  </si>
+  <si>
+    <t>H2 Prod Nuclear</t>
+  </si>
+  <si>
+    <t>S_H2P_BIO-All</t>
+  </si>
+  <si>
+    <t>S_H2P_BIO</t>
+  </si>
+  <si>
+    <t>S_H2P_BIO-CCS</t>
+  </si>
+  <si>
+    <t>S_H2P_COA-All</t>
+  </si>
+  <si>
+    <t>S_H2P_COA</t>
+  </si>
+  <si>
+    <t>S_H2P_COA-CCS</t>
+  </si>
+  <si>
+    <t>S_H2P_ELC</t>
+  </si>
+  <si>
+    <t>S_H2P_GAS-All</t>
+  </si>
+  <si>
+    <t>S_H2P_GAS</t>
+  </si>
+  <si>
+    <t>S_H2P_GAS-CCS</t>
+  </si>
+  <si>
+    <t>S_H2P_OIL</t>
+  </si>
+  <si>
+    <t>S_H2P_NUC</t>
+  </si>
+  <si>
+    <t>SHFO*H2*</t>
+  </si>
+  <si>
+    <t>ENUCH2*</t>
+  </si>
+  <si>
+    <t>ELC*,-BIO*,-COA*,-GAS*</t>
+  </si>
+  <si>
+    <t>SGAS*H2*</t>
+  </si>
+  <si>
+    <t>*ELCH2*</t>
+  </si>
+  <si>
+    <t>SYNH2*</t>
+  </si>
+  <si>
+    <t>TRNH2</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +1049,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1290,36 +1467,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:J68"/>
+  <dimension ref="B2:J83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70:H83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="8"/>
+    <col min="2" max="2" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
@@ -1365,7 +1542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
@@ -1379,7 +1556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>247</v>
       </c>
@@ -1395,7 +1572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>248</v>
       </c>
@@ -1411,7 +1588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -1426,7 +1603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>224</v>
       </c>
@@ -1441,7 +1618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>126</v>
       </c>
@@ -1456,7 +1633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>224</v>
       </c>
@@ -1472,7 +1649,7 @@
         <v>natural-gas</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>247</v>
       </c>
@@ -1489,7 +1666,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>248</v>
       </c>
@@ -1506,7 +1683,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>246</v>
       </c>
@@ -1527,7 +1704,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>126</v>
       </c>
@@ -1542,7 +1719,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>224</v>
       </c>
@@ -1557,7 +1734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>126</v>
       </c>
@@ -1572,7 +1749,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>126</v>
       </c>
@@ -1586,7 +1763,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>224</v>
       </c>
@@ -1601,7 +1778,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>224</v>
       </c>
@@ -1616,7 +1793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>126</v>
       </c>
@@ -1630,7 +1807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
         <v>224</v>
       </c>
@@ -1644,7 +1821,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>246</v>
       </c>
@@ -1659,7 +1836,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -1674,7 +1851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>224</v>
       </c>
@@ -1689,7 +1866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>246</v>
       </c>
@@ -1704,7 +1881,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1721,7 +1898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
@@ -1741,7 +1918,7 @@
         <v>ELEBIO-O</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1757,11 +1934,11 @@
         <v>ELECOA-O</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f t="shared" ref="H29:H68" si="0">G29</f>
+        <f t="shared" ref="H29:H70" si="0">G29</f>
         <v>ELECOA-O</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1958,7 @@
         <v>ELEGAS-O</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1801,7 +1978,7 @@
         <v>ELEGEO-O</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1821,7 +1998,7 @@
         <v>ELEHYD-O</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -1841,7 +2018,7 @@
         <v>ELENUC-O</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
@@ -1861,7 +2038,7 @@
         <v>ELEOIL-O</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
@@ -1880,7 +2057,7 @@
         <v>ELEDST-O</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -1900,7 +2077,7 @@
         <v>ELESOL-O</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
@@ -1920,7 +2097,7 @@
         <v>ELEWAS-O</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +2117,7 @@
         <v>ELEWIN-O</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
         <v>246</v>
       </c>
@@ -1960,7 +2137,7 @@
         <v>ELEBIO-N</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +2157,7 @@
         <v>ELECOA-N</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2177,7 @@
         <v>ELEGAS-N</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
         <v>246</v>
       </c>
@@ -2020,7 +2197,7 @@
         <v>ELEGEO-N</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
         <v>246</v>
       </c>
@@ -2040,7 +2217,7 @@
         <v>ELEHYD-N</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -2060,7 +2237,7 @@
         <v>ELENUC-N</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
@@ -2080,7 +2257,7 @@
         <v>ELEOIL-N</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
         <v>28</v>
       </c>
@@ -2099,7 +2276,7 @@
         <v>ELEDST-N</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>246</v>
       </c>
@@ -2119,7 +2296,7 @@
         <v>ELESOL-N</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>28</v>
       </c>
@@ -2139,7 +2316,7 @@
         <v>ELEWAS-N</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
         <v>246</v>
       </c>
@@ -2159,7 +2336,7 @@
         <v>ELEWIN-N</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="12" t="s">
         <v>126</v>
       </c>
@@ -2180,7 +2357,7 @@
         <v>ELECOA-S</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
         <v>126</v>
       </c>
@@ -2202,7 +2379,7 @@
         <v>ELEGAS-S</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="12" t="s">
         <v>126</v>
       </c>
@@ -2224,7 +2401,7 @@
         <v>ELEBIO-S</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
         <v>126</v>
       </c>
@@ -2244,7 +2421,7 @@
         <v>ELECOA-NS</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>126</v>
       </c>
@@ -2267,7 +2444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="12" t="s">
         <v>126</v>
       </c>
@@ -2287,7 +2464,7 @@
         <v>ELEBIO-NS</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
         <v>126</v>
       </c>
@@ -2305,7 +2482,7 @@
         <v>EGasOil_N-CT</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="8" t="s">
         <v>126</v>
       </c>
@@ -2323,7 +2500,7 @@
         <v>EGasOil_N-CC</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
         <v>126</v>
       </c>
@@ -2341,7 +2518,7 @@
         <v>EGasOil_N-ST</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>126</v>
       </c>
@@ -2359,7 +2536,7 @@
         <v>EGasOil_E-CT</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>126</v>
       </c>
@@ -2377,7 +2554,7 @@
         <v>EGasOil_E-CC</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
@@ -2395,7 +2572,7 @@
         <v>EGasOil_E-ST</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C62" s="8" t="s">
         <v>244</v>
       </c>
@@ -2407,7 +2584,7 @@
         <v>ERETargDum</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>79</v>
       </c>
@@ -2421,7 +2598,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>126</v>
       </c>
@@ -2439,7 +2616,7 @@
         <v>ECoal_E-CC</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>126</v>
       </c>
@@ -2461,7 +2638,7 @@
         <v>ECoal_N-CC</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
         <v>126</v>
       </c>
@@ -2483,7 +2660,7 @@
         <v>ECoal_N-CS</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
@@ -2501,7 +2678,7 @@
         <v>ECoal_N-ST</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
         <v>126</v>
       </c>
@@ -2517,36 +2694,252 @@
       <c r="H68" s="8" t="str">
         <f t="shared" si="0"/>
         <v>ECoal_E-ST</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B82" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C83" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2566,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2583,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -2600,7 +2993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +3010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -2634,7 +3027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -2651,7 +3044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +3061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -2683,6 +3076,20 @@
       </c>
       <c r="G10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2695,26 +3102,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +3156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>126</v>
       </c>
@@ -2772,7 +3179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
@@ -2795,7 +3202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>126</v>
       </c>
@@ -2818,7 +3225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>126</v>
       </c>
@@ -2841,7 +3248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>126</v>
       </c>
@@ -2864,7 +3271,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
@@ -2887,7 +3294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>126</v>
       </c>
@@ -2910,7 +3317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>126</v>
       </c>
@@ -2933,7 +3340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
@@ -2964,7 +3371,7 @@
       </c>
       <c r="O12"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
@@ -2987,7 +3394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>126</v>
       </c>
@@ -3010,7 +3417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>126</v>
       </c>
@@ -3033,7 +3440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>126</v>
       </c>
@@ -3056,7 +3463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>126</v>
       </c>
@@ -3079,7 +3486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>126</v>
       </c>
@@ -3109,7 +3516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>126</v>
       </c>
@@ -3132,7 +3539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>126</v>
       </c>
@@ -3155,7 +3562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
@@ -3178,7 +3585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>126</v>
       </c>
@@ -3208,7 +3615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>126</v>
       </c>
@@ -3231,7 +3638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>126</v>
       </c>
@@ -3254,7 +3661,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>126</v>
       </c>
@@ -3277,7 +3684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
@@ -3300,7 +3707,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>126</v>
       </c>
@@ -3323,7 +3730,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -3346,7 +3753,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>126</v>
       </c>
@@ -3369,7 +3776,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>126</v>
       </c>
@@ -3392,7 +3799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>126</v>
       </c>
@@ -3415,7 +3822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>126</v>
       </c>
@@ -3438,7 +3845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
@@ -3461,7 +3868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>126</v>
       </c>
@@ -3484,7 +3891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>126</v>
       </c>
@@ -3507,7 +3914,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -3522,7 +3929,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -3537,7 +3944,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -3552,7 +3959,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -3567,7 +3974,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -3594,14 +4001,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3641,26 +4048,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="6"/>
+    <col min="1" max="2" width="9.1796875" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="8.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="6"/>
+    <col min="8" max="8" width="8.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -3689,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="s">
         <v>151</v>
       </c>
@@ -3701,7 +4108,7 @@
         <v>GridLev1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
@@ -3713,7 +4120,7 @@
         <v>GridLev2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
@@ -3725,7 +4132,7 @@
         <v>GridLev3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="8" t="s">
         <v>177</v>
       </c>
@@ -3739,7 +4146,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
@@ -3765,32 +4172,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="4.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" style="6"/>
+    <col min="13" max="13" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -3819,7 +4226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="str">
         <f>"*[_]"&amp;M4&amp;"[_]*"</f>
         <v>*[_]C01[_]*</v>
@@ -3839,7 +4246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="str">
         <f t="shared" ref="C5:C13" si="0">"*[_]"&amp;M5&amp;"[_]*"</f>
         <v>*[_]C02[_]*</v>
@@ -3859,7 +4266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C03[_]*</v>
@@ -3879,7 +4286,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C04[_]*</v>
@@ -3899,7 +4306,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C05[_]*</v>
@@ -3919,7 +4326,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C06[_]*</v>
@@ -3939,7 +4346,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C07[_]*</v>
@@ -3959,7 +4366,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C08[_]*</v>
@@ -3979,7 +4386,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C09[_]*</v>
@@ -3999,7 +4406,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C10[_]*</v>
@@ -4019,7 +4426,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" s="8" t="str">
         <f>"*WON*[_]"&amp;M14&amp;"[_]*"</f>
         <v>*WON*[_]C1[_]*</v>
@@ -4039,7 +4446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="str">
         <f t="shared" ref="C15:C22" si="3">"*WON*[_]"&amp;M15&amp;"[_]*"</f>
         <v>*WON*[_]C2[_]*</v>
@@ -4059,7 +4466,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C16" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C3[_]*</v>
@@ -4079,7 +4486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C17" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C4[_]*</v>
@@ -4099,7 +4506,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C18" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C5[_]*</v>
@@ -4119,7 +4526,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C19" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C6[_]*</v>
@@ -4139,7 +4546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C7[_]*</v>
@@ -4159,7 +4566,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C8[_]*</v>
@@ -4179,7 +4586,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C9[_]*</v>
@@ -4199,7 +4606,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C23" s="8" t="str">
         <f t="shared" ref="C23:C31" si="5">"*WOF*[_]"&amp;M23&amp;"[_]*"</f>
         <v>*WOF*[_]C1[_]*</v>
@@ -4225,7 +4632,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C24" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C2[_]*</v>
@@ -4251,7 +4658,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C25" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C3[_]*</v>
@@ -4277,7 +4684,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C4[_]*</v>
@@ -4303,7 +4710,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C5[_]*</v>
@@ -4329,7 +4736,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C6[_]*</v>
@@ -4355,7 +4762,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C29" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C7[_]*</v>
@@ -4381,7 +4788,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C30" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C8[_]*</v>
@@ -4407,7 +4814,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C31" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C9[_]*</v>
@@ -4433,10 +4840,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" s="8"/>
     </row>
   </sheetData>
@@ -4450,24 +4857,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4496,7 +4903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>196</v>
       </c>
@@ -4519,7 +4926,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>192</v>
       </c>
@@ -4537,7 +4944,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>197</v>
       </c>
@@ -4560,7 +4967,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="5" t="s">
         <v>193</v>
       </c>
@@ -4577,7 +4984,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>194</v>
       </c>
@@ -4594,7 +5001,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>199</v>
       </c>
@@ -4611,7 +5018,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>217</v>
       </c>
@@ -4634,7 +5041,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>218</v>
       </c>
@@ -4651,7 +5058,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C12" s="5" t="s">
         <v>218</v>
       </c>
@@ -4668,7 +5075,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>223</v>
       </c>
@@ -4685,7 +5092,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>222</v>
       </c>
@@ -4702,7 +5109,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>216</v>
       </c>

--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F88E9-4C73-4845-BF68-E9C86EA1C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0784BA-E61B-4A5C-A1F0-74FEF0018A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,30 +1473,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70:H83"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
-    <col min="2" max="2" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="8"/>
+    <col min="2" max="2" width="21.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="8"/>
+    <col min="9" max="9" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>247</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>248</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>224</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>126</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>224</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>natural-gas</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>247</v>
       </c>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>248</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>246</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>126</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>224</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>126</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>126</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>224</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>224</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>126</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>224</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>246</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>224</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>246</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>ELEBIO-O</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1934,11 +1934,11 @@
         <v>ELECOA-O</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f t="shared" ref="H29:H70" si="0">G29</f>
+        <f t="shared" ref="H29:H68" si="0">G29</f>
         <v>ELECOA-O</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>ELEGAS-O</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>ELEGEO-O</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>ELEHYD-O</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>ELENUC-O</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>ELEOIL-O</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>ELEDST-O</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>ELESOL-O</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>ELEWAS-O</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>ELEWIN-O</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>246</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>ELEBIO-N</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>ELECOA-N</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>28</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>ELEGAS-N</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>246</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>ELEGEO-N</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>246</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>ELEHYD-N</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>ELENUC-N</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>ELEOIL-N</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>28</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>ELEDST-N</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>246</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>ELESOL-N</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>28</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>ELEWAS-N</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>246</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>ELEWIN-N</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>126</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>ELECOA-S</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>126</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>ELEGAS-S</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>126</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>ELEBIO-S</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>126</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>ELECOA-NS</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>126</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>126</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>ELEBIO-NS</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>126</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>EGasOil_N-CT</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>126</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>EGasOil_N-CC</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>126</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>EGasOil_N-ST</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>126</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>EGasOil_E-CT</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>126</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>EGasOil_E-CC</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>EGasOil_E-ST</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>244</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>ERETargDum</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>79</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>126</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>ECoal_E-CC</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>126</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>ECoal_N-CC</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>126</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>ECoal_N-CS</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>ECoal_N-ST</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>126</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>ECoal_E-ST</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>266</v>
       </c>
@@ -2710,9 +2710,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>187</v>
@@ -2724,9 +2724,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>61</v>
@@ -2738,7 +2738,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>266</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>283</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>283</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>266</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>286</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>286</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>266</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>266</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>290</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>290</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>266</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C83" s="8" t="s">
         <v>296</v>
       </c>
@@ -2925,21 +2925,21 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -3104,24 +3104,24 @@
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>126</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>126</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>126</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>126</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>126</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>126</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="O12"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>126</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>126</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>126</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>126</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>126</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>126</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>126</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>126</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>126</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>126</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>126</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>126</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>126</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>126</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>126</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>126</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>126</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>126</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -3929,7 +3929,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -3944,7 +3944,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -3959,7 +3959,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -3974,7 +3974,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -4001,14 +4001,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4048,26 +4048,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="6"/>
+    <col min="1" max="2" width="9.21875" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="6"/>
-    <col min="8" max="8" width="8.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="6"/>
+    <col min="8" max="8" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>151</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>GridLev1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>GridLev2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>GridLev3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>177</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
@@ -4176,28 +4176,28 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="6"/>
-    <col min="13" max="13" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="2" width="9.21875" style="6"/>
+    <col min="3" max="3" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.21875" style="6"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="str">
         <f>"*[_]"&amp;M4&amp;"[_]*"</f>
         <v>*[_]C01[_]*</v>
@@ -4246,7 +4246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="str">
         <f t="shared" ref="C5:C13" si="0">"*[_]"&amp;M5&amp;"[_]*"</f>
         <v>*[_]C02[_]*</v>
@@ -4266,7 +4266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C03[_]*</v>
@@ -4286,7 +4286,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C04[_]*</v>
@@ -4306,7 +4306,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C05[_]*</v>
@@ -4326,7 +4326,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C06[_]*</v>
@@ -4346,7 +4346,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C07[_]*</v>
@@ -4366,7 +4366,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C08[_]*</v>
@@ -4386,7 +4386,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C09[_]*</v>
@@ -4406,7 +4406,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C10[_]*</v>
@@ -4426,7 +4426,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="str">
         <f>"*WON*[_]"&amp;M14&amp;"[_]*"</f>
         <v>*WON*[_]C1[_]*</v>
@@ -4446,7 +4446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="str">
         <f t="shared" ref="C15:C22" si="3">"*WON*[_]"&amp;M15&amp;"[_]*"</f>
         <v>*WON*[_]C2[_]*</v>
@@ -4466,7 +4466,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C3[_]*</v>
@@ -4486,7 +4486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C4[_]*</v>
@@ -4506,7 +4506,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C5[_]*</v>
@@ -4526,7 +4526,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C6[_]*</v>
@@ -4546,7 +4546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C7[_]*</v>
@@ -4566,7 +4566,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C8[_]*</v>
@@ -4586,7 +4586,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C9[_]*</v>
@@ -4606,7 +4606,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="8" t="str">
         <f t="shared" ref="C23:C31" si="5">"*WOF*[_]"&amp;M23&amp;"[_]*"</f>
         <v>*WOF*[_]C1[_]*</v>
@@ -4632,7 +4632,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C2[_]*</v>
@@ -4658,7 +4658,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C3[_]*</v>
@@ -4684,7 +4684,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C4[_]*</v>
@@ -4710,7 +4710,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C5[_]*</v>
@@ -4736,7 +4736,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C6[_]*</v>
@@ -4762,7 +4762,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C7[_]*</v>
@@ -4788,7 +4788,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C8[_]*</v>
@@ -4814,7 +4814,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C9[_]*</v>
@@ -4840,10 +4840,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="8"/>
     </row>
   </sheetData>
@@ -4857,24 +4857,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>196</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>192</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>197</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>193</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>194</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>199</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>217</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>218</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>218</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>223</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>222</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>216</v>
       </c>

--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0784BA-E61B-4A5C-A1F0-74FEF0018A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C55ADBE-C3B8-44DC-AB0F-468B4E6A4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TechSup" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="315">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -986,6 +986,42 @@
   </si>
   <si>
     <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>ELCCO2-Seq</t>
+  </si>
+  <si>
+    <t>-SUPCO2-Seq</t>
+  </si>
+  <si>
+    <t>SUPCO2-Seq</t>
+  </si>
+  <si>
+    <t>H2 Prod Gas retrofit</t>
+  </si>
+  <si>
+    <t>*RETCCS</t>
+  </si>
+  <si>
+    <t>-*RETCCS</t>
+  </si>
+  <si>
+    <t>EN[_]*,-EN_ZZ*</t>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
+  <si>
+    <t>EN_ZZ*</t>
+  </si>
+  <si>
+    <t>ELECOA-R</t>
+  </si>
+  <si>
+    <t>ELEGAS-R</t>
+  </si>
+  <si>
+    <t>S_H2P_GAS-RET</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1100,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,6 +1116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1110,7 +1152,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1126,6 +1168,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1469,11 +1512,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:J83"/>
+  <dimension ref="B2:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1934,7 +1977,7 @@
         <v>ELECOA-O</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f t="shared" ref="H29:H68" si="0">G29</f>
+        <f t="shared" ref="H29:H51" si="0">G29</f>
         <v>ELECOA-O</v>
       </c>
     </row>
@@ -2341,13 +2384,13 @@
         <v>126</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>249</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>62</v>
@@ -2362,14 +2405,15 @@
         <v>126</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="E51" s="8" t="str">
         <f>E10</f>
         <v>ELCWHT,-ELCCOA*,ELCGAS</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>61</v>
+      <c r="F51" s="8" t="str">
+        <f>F50</f>
+        <v>ELCCO2-Seq</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>134</v>
@@ -2390,14 +2434,15 @@
         <f>E28</f>
         <v>ELCCRP,ELCBIO</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>61</v>
+      <c r="F52" s="8" t="str">
+        <f>F51</f>
+        <v>ELCCO2-Seq</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H52" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H52:H62" si="2">G52</f>
         <v>ELEBIO-S</v>
       </c>
     </row>
@@ -2411,13 +2456,13 @@
       </c>
       <c r="F53" s="8" t="str">
         <f>"-"&amp;$F$50</f>
-        <v>-CO2Captured</v>
+        <v>-ELCCO2-Seq</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>64</v>
       </c>
       <c r="H53" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ELECOA-NS</v>
       </c>
     </row>
@@ -2431,13 +2476,13 @@
       </c>
       <c r="F54" s="8" t="str">
         <f>"-"&amp;$F$50</f>
-        <v>-CO2Captured</v>
+        <v>-ELCCO2-Seq</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>135</v>
       </c>
       <c r="H54" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ELEGAS-NS</v>
       </c>
       <c r="I54" s="8" t="s">
@@ -2454,19 +2499,19 @@
       </c>
       <c r="F55" s="8" t="str">
         <f>"-"&amp;$F$50</f>
-        <v>-CO2Captured</v>
+        <v>-ELCCO2-Seq</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H55" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ELEBIO-NS</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>255</v>
@@ -2478,7 +2523,7 @@
         <v>237</v>
       </c>
       <c r="H56" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>EGasOil_N-CT</v>
       </c>
     </row>
@@ -2496,7 +2541,7 @@
         <v>238</v>
       </c>
       <c r="H57" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>EGasOil_N-CC</v>
       </c>
     </row>
@@ -2514,7 +2559,7 @@
         <v>239</v>
       </c>
       <c r="H58" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>EGasOil_N-ST</v>
       </c>
     </row>
@@ -2532,7 +2577,7 @@
         <v>240</v>
       </c>
       <c r="H59" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>EGasOil_E-CT</v>
       </c>
     </row>
@@ -2550,7 +2595,7 @@
         <v>241</v>
       </c>
       <c r="H60" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>EGasOil_E-CC</v>
       </c>
     </row>
@@ -2568,7 +2613,7 @@
         <v>242</v>
       </c>
       <c r="H61" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>EGasOil_E-ST</v>
       </c>
     </row>
@@ -2580,7 +2625,7 @@
         <v>245</v>
       </c>
       <c r="H62" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ERETargDum</v>
       </c>
     </row>
@@ -2612,7 +2657,7 @@
         <v>256</v>
       </c>
       <c r="H64" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>G64</f>
         <v>ECoal_E-CC</v>
       </c>
     </row>
@@ -2628,13 +2673,13 @@
       </c>
       <c r="F65" s="8" t="str">
         <f>F55</f>
-        <v>-CO2Captured</v>
+        <v>-ELCCO2-Seq</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>257</v>
       </c>
       <c r="H65" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>G65</f>
         <v>ECoal_N-CC</v>
       </c>
     </row>
@@ -2650,13 +2695,13 @@
       </c>
       <c r="F66" s="8" t="str">
         <f>F52</f>
-        <v>CO2Captured</v>
+        <v>ELCCO2-Seq</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>262</v>
       </c>
       <c r="H66" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>G66</f>
         <v>ECoal_N-CS</v>
       </c>
     </row>
@@ -2674,7 +2719,7 @@
         <v>259</v>
       </c>
       <c r="H67" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>G67</f>
         <v>ECoal_N-ST</v>
       </c>
     </row>
@@ -2692,7 +2737,7 @@
         <v>260</v>
       </c>
       <c r="H68" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>G68</f>
         <v>ECoal_E-ST</v>
       </c>
     </row>
@@ -2714,8 +2759,8 @@
       <c r="B70" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>187</v>
+      <c r="F70" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>264</v>
@@ -2729,7 +2774,7 @@
         <v>265</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>264</v>
@@ -2756,8 +2801,9 @@
       <c r="B73" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>187</v>
+      <c r="F73" s="8" t="str">
+        <f>F70</f>
+        <v>-SUPCO2-Seq</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>284</v>
@@ -2770,8 +2816,9 @@
       <c r="B74" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>61</v>
+      <c r="F74" s="8" t="str">
+        <f>F71</f>
+        <v>SUPCO2-Seq</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>285</v>
@@ -2798,8 +2845,9 @@
       <c r="B76" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>187</v>
+      <c r="F76" s="8" t="str">
+        <f>F70</f>
+        <v>-SUPCO2-Seq</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>287</v>
@@ -2812,8 +2860,9 @@
       <c r="B77" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>61</v>
+      <c r="F77" s="8" t="str">
+        <f>F74</f>
+        <v>SUPCO2-Seq</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>288</v>
@@ -2860,8 +2909,9 @@
       <c r="B80" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>187</v>
+      <c r="F80" s="8" t="str">
+        <f>F76</f>
+        <v>-SUPCO2-Seq</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>291</v>
@@ -2871,42 +2921,109 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>292</v>
+      <c r="B81" s="8" t="str">
+        <f>B82</f>
+        <v>S_H2P_GAS-All</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F81" s="8" t="str">
+        <f t="shared" ref="F81:G81" si="3">F82</f>
+        <v>SUPCO2-Seq</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" s="8" t="str">
+        <f>F77</f>
+        <v>SUPCO2-Seq</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G83" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H83" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="8" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C84" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H84" s="8" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H85" s="8" t="str">
+        <f t="shared" ref="H85:H86" si="4">G85</f>
+        <v>ELECOA-R</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="8" t="str">
+        <f>E45</f>
+        <v>ELCOIL,-ELCGAS,-ELCCOA*</v>
+      </c>
+      <c r="F86" s="8" t="str">
+        <f>F85</f>
+        <v>ELCCO2-Seq</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H86" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ELEGAS-R</v>
       </c>
     </row>
   </sheetData>

--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C55ADBE-C3B8-44DC-AB0F-468B4E6A4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130DD794-7CC6-47DC-ABAA-C730F7D7B2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TechSup" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="318">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -991,21 +991,12 @@
     <t>ELCCO2-Seq</t>
   </si>
   <si>
-    <t>-SUPCO2-Seq</t>
-  </si>
-  <si>
-    <t>SUPCO2-Seq</t>
-  </si>
-  <si>
     <t>H2 Prod Gas retrofit</t>
   </si>
   <si>
     <t>*RETCCS</t>
   </si>
   <si>
-    <t>-*RETCCS</t>
-  </si>
-  <si>
     <t>EN[_]*,-EN_ZZ*</t>
   </si>
   <si>
@@ -1022,6 +1013,24 @@
   </si>
   <si>
     <t>S_H2P_GAS-RET</t>
+  </si>
+  <si>
+    <t>S_H2P-CCS</t>
+  </si>
+  <si>
+    <t>-S*H2*CC*</t>
+  </si>
+  <si>
+    <t>S*H2*CC*</t>
+  </si>
+  <si>
+    <t>S*BIOH2*</t>
+  </si>
+  <si>
+    <t>S*H2*</t>
+  </si>
+  <si>
+    <t>S*GASH2*CC*,-*RETCCS</t>
   </si>
 </sst>
 </file>
@@ -1515,31 +1524,31 @@
   <dimension ref="B2:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="8"/>
-    <col min="2" max="2" width="21.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="8"/>
+    <col min="2" max="2" width="21.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="8"/>
+    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>247</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>248</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>224</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>126</v>
       </c>
@@ -1676,7 +1685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>224</v>
       </c>
@@ -1692,7 +1701,7 @@
         <v>natural-gas</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>247</v>
       </c>
@@ -1709,7 +1718,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>248</v>
       </c>
@@ -1726,7 +1735,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>246</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>126</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>224</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>126</v>
       </c>
@@ -1792,7 +1801,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>126</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>224</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>224</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>126</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
         <v>224</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>246</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -1894,7 +1903,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>224</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>246</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>ELEBIO-O</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +1990,7 @@
         <v>ELECOA-O</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>ELEGAS-O</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>ELEGEO-O</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>ELEHYD-O</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>ELENUC-O</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>ELEOIL-O</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>ELEDST-O</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>ELESOL-O</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>ELEWAS-O</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
@@ -2160,7 +2169,7 @@
         <v>ELEWIN-O</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
         <v>246</v>
       </c>
@@ -2180,7 +2189,7 @@
         <v>ELEBIO-N</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>ELECOA-N</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
         <v>28</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>ELEGAS-N</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
         <v>246</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>ELEGEO-N</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
         <v>246</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>ELEHYD-N</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>ELENUC-N</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2309,7 @@
         <v>ELEOIL-N</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
         <v>28</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>ELEDST-N</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>246</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>ELESOL-N</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>28</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>ELEWAS-N</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
         <v>246</v>
       </c>
@@ -2379,12 +2388,12 @@
         <v>ELEWIN-N</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>249</v>
@@ -2400,12 +2409,12 @@
         <v>ELECOA-S</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E51" s="8" t="str">
         <f>E10</f>
@@ -2423,7 +2432,7 @@
         <v>ELEGAS-S</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="12" t="s">
         <v>126</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>ELEBIO-S</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
         <v>126</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>ELECOA-NS</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>126</v>
       </c>
@@ -2489,7 +2498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="12" t="s">
         <v>126</v>
       </c>
@@ -2509,9 +2518,9 @@
         <v>ELEBIO-NS</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>255</v>
@@ -2527,7 +2536,7 @@
         <v>EGasOil_N-CT</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="8" t="s">
         <v>126</v>
       </c>
@@ -2545,7 +2554,7 @@
         <v>EGasOil_N-CC</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
         <v>126</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>EGasOil_N-ST</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>126</v>
       </c>
@@ -2581,7 +2590,7 @@
         <v>EGasOil_E-CT</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>126</v>
       </c>
@@ -2599,7 +2608,7 @@
         <v>EGasOil_E-CC</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
@@ -2617,7 +2626,7 @@
         <v>EGasOil_E-ST</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C62" s="8" t="s">
         <v>244</v>
       </c>
@@ -2629,7 +2638,7 @@
         <v>ERETargDum</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>79</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>126</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>ECoal_E-CC</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>126</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>ECoal_N-CC</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
         <v>126</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>ECoal_N-CS</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>ECoal_N-ST</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
         <v>126</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>ECoal_E-ST</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="8" t="s">
         <v>266</v>
       </c>
@@ -2755,13 +2764,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>304</v>
-      </c>
+      <c r="C70" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" s="14"/>
       <c r="G70" s="8" t="s">
         <v>264</v>
       </c>
@@ -2769,24 +2779,27 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>305</v>
+      <c r="C71" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
         <v>266</v>
       </c>
+      <c r="C72" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="E72" s="8" t="s">
         <v>14</v>
       </c>
@@ -2797,13 +2810,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F73" s="8" t="str">
-        <f>F70</f>
-        <v>-SUPCO2-Seq</v>
+      <c r="C73" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>284</v>
@@ -2812,13 +2827,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F74" s="8" t="str">
-        <f>F71</f>
-        <v>SUPCO2-Seq</v>
+      <c r="C74" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>285</v>
@@ -2827,10 +2844,13 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="8" t="s">
         <v>266</v>
       </c>
+      <c r="C75" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="E75" s="8" t="s">
         <v>42</v>
       </c>
@@ -2841,13 +2861,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F76" s="8" t="str">
-        <f>F70</f>
-        <v>-SUPCO2-Seq</v>
+      <c r="C76" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>287</v>
@@ -2856,13 +2878,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F77" s="8" t="str">
-        <f>F74</f>
-        <v>SUPCO2-Seq</v>
+      <c r="C77" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>288</v>
@@ -2871,7 +2895,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="8" t="s">
         <v>266</v>
       </c>
@@ -2888,7 +2912,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>266</v>
       </c>
@@ -2905,13 +2929,15 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F80" s="8" t="str">
-        <f>F76</f>
-        <v>-SUPCO2-Seq</v>
+      <c r="C80" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>291</v>
@@ -2920,35 +2946,33 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="8" t="str">
         <f>B82</f>
         <v>S_H2P_GAS-All</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F81" s="8" t="str">
-        <f t="shared" ref="F81:G81" si="3">F82</f>
-        <v>SUPCO2-Seq</v>
+        <v>305</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F82" s="8" t="str">
-        <f>F77</f>
-        <v>SUPCO2-Seq</v>
+        <v>317</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>292</v>
@@ -2957,7 +2981,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>266</v>
       </c>
@@ -2971,7 +2995,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C84" s="8" t="s">
         <v>296</v>
       </c>
@@ -2982,12 +3006,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>249</v>
@@ -2996,19 +3020,19 @@
         <v>303</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H85" s="8" t="str">
-        <f t="shared" ref="H85:H86" si="4">G85</f>
+        <f t="shared" ref="H85:H86" si="3">G85</f>
         <v>ELECOA-R</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E86" s="8" t="str">
         <f>E45</f>
@@ -3019,10 +3043,10 @@
         <v>ELCCO2-Seq</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H86" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>ELEGAS-R</v>
       </c>
     </row>
@@ -3042,21 +3066,21 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3076,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3093,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -3110,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -3127,7 +3151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -3144,7 +3168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -3161,7 +3185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3195,7 +3219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -3221,24 +3245,24 @@
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3273,7 +3297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>126</v>
       </c>
@@ -3296,7 +3320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
@@ -3319,7 +3343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>126</v>
       </c>
@@ -3342,7 +3366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>126</v>
       </c>
@@ -3365,7 +3389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>126</v>
       </c>
@@ -3388,7 +3412,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
@@ -3411,7 +3435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>126</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>126</v>
       </c>
@@ -3457,7 +3481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
@@ -3488,7 +3512,7 @@
       </c>
       <c r="O12"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
@@ -3511,7 +3535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>126</v>
       </c>
@@ -3534,7 +3558,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>126</v>
       </c>
@@ -3557,7 +3581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>126</v>
       </c>
@@ -3580,7 +3604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>126</v>
       </c>
@@ -3603,7 +3627,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>126</v>
       </c>
@@ -3633,7 +3657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>126</v>
       </c>
@@ -3656,7 +3680,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>126</v>
       </c>
@@ -3679,7 +3703,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
@@ -3702,7 +3726,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>126</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>126</v>
       </c>
@@ -3755,7 +3779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>126</v>
       </c>
@@ -3778,7 +3802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>126</v>
       </c>
@@ -3801,7 +3825,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>126</v>
       </c>
@@ -3847,7 +3871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -3870,7 +3894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>126</v>
       </c>
@@ -3893,7 +3917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>126</v>
       </c>
@@ -3916,7 +3940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>126</v>
       </c>
@@ -3939,7 +3963,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>126</v>
       </c>
@@ -3962,7 +3986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
@@ -3985,7 +4009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>126</v>
       </c>
@@ -4008,7 +4032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>126</v>
       </c>
@@ -4031,7 +4055,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4046,7 +4070,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -4061,7 +4085,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -4076,7 +4100,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -4091,7 +4115,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -4118,14 +4142,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4165,26 +4189,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="6"/>
+    <col min="1" max="2" width="9.1796875" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="6"/>
-    <col min="8" max="8" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="6"/>
+    <col min="4" max="4" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="6"/>
+    <col min="8" max="8" width="8.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4213,7 +4237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="s">
         <v>151</v>
       </c>
@@ -4225,7 +4249,7 @@
         <v>GridLev1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
@@ -4237,7 +4261,7 @@
         <v>GridLev2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
@@ -4249,7 +4273,7 @@
         <v>GridLev3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="8" t="s">
         <v>177</v>
       </c>
@@ -4263,7 +4287,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
@@ -4293,28 +4317,28 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="6"/>
-    <col min="3" max="3" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.21875" style="6"/>
-    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.21875" style="6"/>
+    <col min="1" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" style="6"/>
+    <col min="13" max="13" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4343,7 +4367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="str">
         <f>"*[_]"&amp;M4&amp;"[_]*"</f>
         <v>*[_]C01[_]*</v>
@@ -4363,7 +4387,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="str">
         <f t="shared" ref="C5:C13" si="0">"*[_]"&amp;M5&amp;"[_]*"</f>
         <v>*[_]C02[_]*</v>
@@ -4383,7 +4407,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C03[_]*</v>
@@ -4403,7 +4427,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C04[_]*</v>
@@ -4423,7 +4447,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C05[_]*</v>
@@ -4443,7 +4467,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C06[_]*</v>
@@ -4463,7 +4487,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C07[_]*</v>
@@ -4483,7 +4507,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C08[_]*</v>
@@ -4503,7 +4527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C09[_]*</v>
@@ -4523,7 +4547,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C10[_]*</v>
@@ -4543,7 +4567,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" s="8" t="str">
         <f>"*WON*[_]"&amp;M14&amp;"[_]*"</f>
         <v>*WON*[_]C1[_]*</v>
@@ -4563,7 +4587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="str">
         <f t="shared" ref="C15:C22" si="3">"*WON*[_]"&amp;M15&amp;"[_]*"</f>
         <v>*WON*[_]C2[_]*</v>
@@ -4583,7 +4607,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C16" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C3[_]*</v>
@@ -4603,7 +4627,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C17" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C4[_]*</v>
@@ -4623,7 +4647,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C18" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C5[_]*</v>
@@ -4643,7 +4667,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C19" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C6[_]*</v>
@@ -4663,7 +4687,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C7[_]*</v>
@@ -4683,7 +4707,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C8[_]*</v>
@@ -4703,7 +4727,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C9[_]*</v>
@@ -4723,7 +4747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C23" s="8" t="str">
         <f t="shared" ref="C23:C31" si="5">"*WOF*[_]"&amp;M23&amp;"[_]*"</f>
         <v>*WOF*[_]C1[_]*</v>
@@ -4749,7 +4773,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C24" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C2[_]*</v>
@@ -4775,7 +4799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C25" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C3[_]*</v>
@@ -4801,7 +4825,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C4[_]*</v>
@@ -4827,7 +4851,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C5[_]*</v>
@@ -4853,7 +4877,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C6[_]*</v>
@@ -4879,7 +4903,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C29" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C7[_]*</v>
@@ -4905,7 +4929,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C30" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C8[_]*</v>
@@ -4931,7 +4955,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C31" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C9[_]*</v>
@@ -4957,10 +4981,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" s="8"/>
     </row>
   </sheetData>
@@ -4974,24 +4998,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5020,7 +5044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>196</v>
       </c>
@@ -5043,7 +5067,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>192</v>
       </c>
@@ -5061,7 +5085,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>197</v>
       </c>
@@ -5084,7 +5108,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="5" t="s">
         <v>193</v>
       </c>
@@ -5101,7 +5125,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>194</v>
       </c>
@@ -5118,7 +5142,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>199</v>
       </c>
@@ -5135,7 +5159,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>217</v>
       </c>
@@ -5158,7 +5182,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>218</v>
       </c>
@@ -5175,7 +5199,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C12" s="5" t="s">
         <v>218</v>
       </c>
@@ -5192,7 +5216,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>223</v>
       </c>
@@ -5209,7 +5233,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>222</v>
       </c>
@@ -5226,7 +5250,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>216</v>
       </c>

--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130DD794-7CC6-47DC-ABAA-C730F7D7B2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A7DBA-C5F5-43B4-8A78-227A1E09F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TechSup" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="320">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -1018,19 +1018,25 @@
     <t>S_H2P-CCS</t>
   </si>
   <si>
-    <t>-S*H2*CC*</t>
-  </si>
-  <si>
-    <t>S*H2*CC*</t>
-  </si>
-  <si>
     <t>S*BIOH2*</t>
   </si>
   <si>
     <t>S*H2*</t>
   </si>
   <si>
-    <t>S*GASH2*CC*,-*RETCCS</t>
+    <t>S*CC*,-*RETCCS</t>
+  </si>
+  <si>
+    <t>S*CC*</t>
+  </si>
+  <si>
+    <t>-S*CC*</t>
+  </si>
+  <si>
+    <t>S*H2*,-*CC*</t>
+  </si>
+  <si>
+    <t>Or</t>
   </si>
 </sst>
 </file>
@@ -1524,8 +1530,8 @@
   <dimension ref="B2:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2670,7 +2676,7 @@
         <v>ECoal_E-CC</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>126</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>ECoal_N-CC</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
         <v>126</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>ECoal_N-CS</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>ECoal_N-ST</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
         <v>126</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>ECoal_E-ST</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="8" t="s">
         <v>266</v>
       </c>
@@ -2764,12 +2770,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="8" t="s">
@@ -2779,12 +2785,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>312</v>
@@ -2793,12 +2799,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>14</v>
@@ -2810,12 +2816,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>14</v>
@@ -2827,12 +2833,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>14</v>
@@ -2844,12 +2850,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>42</v>
@@ -2861,12 +2867,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>42</v>
@@ -2878,12 +2884,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>42</v>
@@ -2895,7 +2901,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="8" t="s">
         <v>266</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>266</v>
       </c>
@@ -2929,12 +2935,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>43</v>
@@ -2944,6 +2950,9 @@
       </c>
       <c r="H80" s="8" t="s">
         <v>279</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.35">
@@ -2969,7 +2978,7 @@
         <v>290</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>43</v>

--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A7DBA-C5F5-43B4-8A78-227A1E09F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E981D4CB-AB5B-4CB7-AE3F-946A0507DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TechSup" sheetId="4" r:id="rId1"/>
-    <sheet name="Comm" sheetId="5" r:id="rId2"/>
-    <sheet name="EFD classification" sheetId="3" r:id="rId3"/>
-    <sheet name="TechTrade" sheetId="6" r:id="rId4"/>
-    <sheet name="Grids" sheetId="7" r:id="rId5"/>
-    <sheet name="SolWin" sheetId="8" r:id="rId6"/>
-    <sheet name="ETL" sheetId="9" r:id="rId7"/>
+    <sheet name="SetsEditor- Proc" sheetId="10" r:id="rId1"/>
+    <sheet name="TechSup" sheetId="4" r:id="rId2"/>
+    <sheet name="Comm" sheetId="5" r:id="rId3"/>
+    <sheet name="EFD classification" sheetId="3" r:id="rId4"/>
+    <sheet name="TechTrade" sheetId="6" r:id="rId5"/>
+    <sheet name="Grids" sheetId="7" r:id="rId6"/>
+    <sheet name="SolWin" sheetId="8" r:id="rId7"/>
+    <sheet name="ETL" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'EFD classification'!$H$3:$J$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TechSup!$F$3:$G$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EFD classification'!$H$3:$J$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TechSup!$F$3:$G$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="335">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -1037,6 +1038,51 @@
   </si>
   <si>
     <t>Or</t>
+  </si>
+  <si>
+    <t>t_pos_andor_forsets</t>
+  </si>
+  <si>
+    <t>t_pos_andor</t>
+  </si>
+  <si>
+    <t>t_neg_andor_forsets</t>
+  </si>
+  <si>
+    <t>t_neg_andor</t>
+  </si>
+  <si>
+    <t>setname</t>
+  </si>
+  <si>
+    <t>setdesc</t>
+  </si>
+  <si>
+    <t>pset_set</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>pset_pd</t>
+  </si>
+  <si>
+    <t>pset_co</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Direct Air Capture</t>
+  </si>
+  <si>
+    <t>SNK_DAC*</t>
   </si>
 </sst>
 </file>
@@ -1525,11 +1571,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6893ED32-2DE5-4115-A4E9-926B8F20B6FA}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
@@ -3066,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:G11"/>
@@ -3247,7 +3372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:O58"/>
@@ -4144,7 +4269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:J3"/>
@@ -4192,7 +4317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:J8"/>
   <sheetViews>
@@ -4318,7 +4443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:M35"/>
   <sheetViews>
@@ -5001,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:J15"/>
   <sheetViews>

--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E981D4CB-AB5B-4CB7-AE3F-946A0507DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DBC7A-745D-4D63-B80F-DA96731DFE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="10" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="337">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>SNK_DAC*</t>
+  </si>
+  <si>
+    <t>CAPTURE_ELC</t>
+  </si>
+  <si>
+    <t>CAPTURE_SUP</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6893ED32-2DE5-4115-A4E9-926B8F20B6FA}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1652,11 +1658,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:J86"/>
+  <dimension ref="B2:J88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3182,6 +3188,34 @@
       <c r="H86" s="8" t="str">
         <f t="shared" si="3"/>
         <v>ELEGAS-R</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B88" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Sets-IEMM.xlsx
+++ b/Sets-IEMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DBC7A-745D-4D63-B80F-DA96731DFE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6777EC97-51D7-44DD-877F-6A7DBBC46262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2730" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="10" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="348">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -1001,9 +1001,6 @@
     <t>EN[_]*,-EN_ZZ*</t>
   </si>
   <si>
-    <t>²</t>
-  </si>
-  <si>
     <t>EN_ZZ*</t>
   </si>
   <si>
@@ -1089,6 +1086,42 @@
   </si>
   <si>
     <t>CAPTURE_SUP</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>DEMTech-H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 DMD </t>
+  </si>
+  <si>
+    <t>S_CCUS_EMIS*</t>
+  </si>
+  <si>
+    <t>ALL_CCU</t>
+  </si>
+  <si>
+    <t>H2TOBRF</t>
+  </si>
+  <si>
+    <t>FT-SUP</t>
+  </si>
+  <si>
+    <t>STH2SUG</t>
+  </si>
+  <si>
+    <t>H2_STG</t>
+  </si>
+  <si>
+    <t>DEMTech-Elec</t>
+  </si>
+  <si>
+    <t>ELEC DMD</t>
+  </si>
+  <si>
+    <t>FT_SUPELC</t>
   </si>
 </sst>
 </file>
@@ -1582,72 +1615,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>321</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>322</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>323</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>324</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>325</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>326</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>327</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>328</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>329</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
         <v>331</v>
       </c>
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>332</v>
-      </c>
-      <c r="F3" t="s">
-        <v>333</v>
       </c>
       <c r="G3" t="s">
         <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1658,34 +1691,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:J88"/>
+  <dimension ref="B2:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
-    <col min="2" max="2" width="21.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="8"/>
+    <col min="2" max="2" width="21.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="8"/>
+    <col min="9" max="9" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
@@ -1731,7 +1764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
@@ -1745,7 +1778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>247</v>
       </c>
@@ -1761,7 +1794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>248</v>
       </c>
@@ -1777,7 +1810,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -1792,7 +1825,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>224</v>
       </c>
@@ -1807,7 +1840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>126</v>
       </c>
@@ -1822,7 +1855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>224</v>
       </c>
@@ -1838,7 +1871,7 @@
         <v>natural-gas</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>247</v>
       </c>
@@ -1855,7 +1888,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>248</v>
       </c>
@@ -1872,7 +1905,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>246</v>
       </c>
@@ -1893,7 +1926,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>126</v>
       </c>
@@ -1908,7 +1941,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>224</v>
       </c>
@@ -1923,7 +1956,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>126</v>
       </c>
@@ -1938,7 +1971,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>126</v>
       </c>
@@ -1952,7 +1985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>224</v>
       </c>
@@ -1967,7 +2000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>224</v>
       </c>
@@ -1982,7 +2015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>126</v>
       </c>
@@ -1996,7 +2029,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>224</v>
       </c>
@@ -2010,7 +2043,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>246</v>
       </c>
@@ -2025,7 +2058,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -2040,7 +2073,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>224</v>
       </c>
@@ -2055,7 +2088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>246</v>
       </c>
@@ -2070,7 +2103,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2120,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
@@ -2107,7 +2140,7 @@
         <v>ELEBIO-O</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -2127,7 +2160,7 @@
         <v>ELECOA-O</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2147,7 +2180,7 @@
         <v>ELEGAS-O</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -2167,7 +2200,7 @@
         <v>ELEGEO-O</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2220,7 @@
         <v>ELEHYD-O</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -2207,7 +2240,7 @@
         <v>ELENUC-O</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
@@ -2227,7 +2260,7 @@
         <v>ELEOIL-O</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +2279,7 @@
         <v>ELEDST-O</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -2266,7 +2299,7 @@
         <v>ELESOL-O</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
@@ -2286,7 +2319,7 @@
         <v>ELEWAS-O</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
@@ -2306,7 +2339,7 @@
         <v>ELEWIN-O</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>246</v>
       </c>
@@ -2326,7 +2359,7 @@
         <v>ELEBIO-N</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -2346,7 +2379,7 @@
         <v>ELECOA-N</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>28</v>
       </c>
@@ -2366,7 +2399,7 @@
         <v>ELEGAS-N</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>246</v>
       </c>
@@ -2386,7 +2419,7 @@
         <v>ELEGEO-N</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>246</v>
       </c>
@@ -2406,7 +2439,7 @@
         <v>ELEHYD-N</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -2426,7 +2459,7 @@
         <v>ELENUC-N</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
@@ -2446,7 +2479,7 @@
         <v>ELEOIL-N</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>28</v>
       </c>
@@ -2465,7 +2498,7 @@
         <v>ELEDST-N</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>246</v>
       </c>
@@ -2485,7 +2518,7 @@
         <v>ELESOL-N</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>28</v>
       </c>
@@ -2505,7 +2538,7 @@
         <v>ELEWAS-N</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>246</v>
       </c>
@@ -2525,7 +2558,7 @@
         <v>ELEWIN-N</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>126</v>
       </c>
@@ -2546,7 +2579,7 @@
         <v>ELECOA-S</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>126</v>
       </c>
@@ -2569,7 +2602,7 @@
         <v>ELEGAS-S</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>126</v>
       </c>
@@ -2592,7 +2625,7 @@
         <v>ELEBIO-S</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>126</v>
       </c>
@@ -2612,7 +2645,7 @@
         <v>ELECOA-NS</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>126</v>
       </c>
@@ -2635,7 +2668,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>126</v>
       </c>
@@ -2655,9 +2688,9 @@
         <v>ELEBIO-NS</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="8" t="s">
-        <v>307</v>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>255</v>
@@ -2673,7 +2706,7 @@
         <v>EGasOil_N-CT</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>126</v>
       </c>
@@ -2691,7 +2724,7 @@
         <v>EGasOil_N-CC</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>126</v>
       </c>
@@ -2709,7 +2742,7 @@
         <v>EGasOil_N-ST</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>126</v>
       </c>
@@ -2727,7 +2760,7 @@
         <v>EGasOil_E-CT</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>126</v>
       </c>
@@ -2745,7 +2778,7 @@
         <v>EGasOil_E-CC</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
@@ -2763,7 +2796,7 @@
         <v>EGasOil_E-ST</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>244</v>
       </c>
@@ -2775,7 +2808,7 @@
         <v>ERETargDum</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>79</v>
       </c>
@@ -2789,7 +2822,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>126</v>
       </c>
@@ -2807,7 +2840,7 @@
         <v>ECoal_E-CC</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>126</v>
       </c>
@@ -2829,7 +2862,7 @@
         <v>ECoal_N-CC</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>126</v>
       </c>
@@ -2851,7 +2884,7 @@
         <v>ECoal_N-CS</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
@@ -2869,7 +2902,7 @@
         <v>ECoal_N-ST</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>126</v>
       </c>
@@ -2887,7 +2920,7 @@
         <v>ECoal_E-ST</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>266</v>
       </c>
@@ -2901,12 +2934,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="8" t="s">
@@ -2916,26 +2949,26 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>14</v>
@@ -2947,12 +2980,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>14</v>
@@ -2964,12 +2997,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>14</v>
@@ -2981,12 +3014,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>42</v>
@@ -2998,12 +3031,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>42</v>
@@ -3015,12 +3048,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>42</v>
@@ -3032,7 +3065,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>266</v>
       </c>
@@ -3049,7 +3082,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>266</v>
       </c>
@@ -3066,12 +3099,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>43</v>
@@ -3083,10 +3116,10 @@
         <v>279</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="str">
         <f>B82</f>
         <v>S_H2P_GAS-All</v>
@@ -3098,18 +3131,18 @@
         <v>43</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>43</v>
@@ -3121,7 +3154,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>266</v>
       </c>
@@ -3135,7 +3168,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C84" s="8" t="s">
         <v>296</v>
       </c>
@@ -3146,76 +3179,161 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B85" s="12" t="s">
-        <v>126</v>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G85" s="8" t="str">
+        <f>C85</f>
+        <v>DEMTech-H2</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H88" s="8" t="str">
+        <f>G88</f>
+        <v>H2_STG</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G89" s="8" t="str">
+        <f>C89</f>
+        <v>DEMTech-Elec</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H90" s="8" t="str">
+        <f>G90</f>
+        <v>FT-SUP</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="H85" s="8" t="str">
-        <f t="shared" ref="H85:H86" si="3">G85</f>
+      <c r="H91" s="8" t="str">
+        <f t="shared" ref="H91:H92" si="3">G91</f>
         <v>ELECOA-R</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B86" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E86" s="8" t="str">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" s="8" t="str">
         <f>E45</f>
         <v>ELCOIL,-ELCGAS,-ELCCOA*</v>
       </c>
-      <c r="F86" s="8" t="str">
-        <f>F85</f>
+      <c r="F92" s="8" t="str">
+        <f>F91</f>
         <v>ELCCO2-Seq</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H86" s="8" t="str">
+      <c r="G92" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H92" s="8" t="str">
         <f t="shared" si="3"/>
         <v>ELEGAS-R</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B87" s="8" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C93" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G94" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H94" s="8" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3234,21 +3352,21 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3268,7 +3386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -3302,7 +3420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -3319,7 +3437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -3336,7 +3454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -3370,7 +3488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3387,7 +3505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -3413,24 +3531,24 @@
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3465,7 +3583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>126</v>
       </c>
@@ -3488,7 +3606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
@@ -3511,7 +3629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>126</v>
       </c>
@@ -3534,7 +3652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>126</v>
       </c>
@@ -3557,7 +3675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>126</v>
       </c>
@@ -3580,7 +3698,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
@@ -3603,7 +3721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>126</v>
       </c>
@@ -3626,7 +3744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>126</v>
       </c>
@@ -3649,7 +3767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>126</v>
       </c>
@@ -3680,7 +3798,7 @@
       </c>
       <c r="O12"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
@@ -3703,7 +3821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>126</v>
       </c>
@@ -3726,7 +3844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>126</v>
       </c>
@@ -3749,7 +3867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>126</v>
       </c>
@@ -3772,7 +3890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>126</v>
       </c>
@@ -3795,7 +3913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>126</v>
       </c>
@@ -3825,7 +3943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>126</v>
       </c>
@@ -3848,7 +3966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>126</v>
       </c>
@@ -3871,7 +3989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>126</v>
       </c>
@@ -3894,7 +4012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>126</v>
       </c>
@@ -3924,7 +4042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>126</v>
       </c>
@@ -3947,7 +4065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>126</v>
       </c>
@@ -3970,7 +4088,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>126</v>
       </c>
@@ -3993,7 +4111,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
@@ -4016,7 +4134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>126</v>
       </c>
@@ -4039,7 +4157,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -4062,7 +4180,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>126</v>
       </c>
@@ -4085,7 +4203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>126</v>
       </c>
@@ -4108,7 +4226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>126</v>
       </c>
@@ -4131,7 +4249,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>126</v>
       </c>
@@ -4154,7 +4272,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
@@ -4177,7 +4295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>126</v>
       </c>
@@ -4200,7 +4318,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>126</v>
       </c>
@@ -4223,7 +4341,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4238,7 +4356,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -4253,7 +4371,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -4268,7 +4386,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -4283,7 +4401,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -4310,14 +4428,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4357,26 +4475,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="6"/>
+    <col min="1" max="2" width="9.21875" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="6"/>
-    <col min="8" max="8" width="8.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="6"/>
+    <col min="8" max="8" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4405,7 +4523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>151</v>
       </c>
@@ -4417,7 +4535,7 @@
         <v>GridLev1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
@@ -4429,7 +4547,7 @@
         <v>GridLev2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
@@ -4441,7 +4559,7 @@
         <v>GridLev3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
         <v>177</v>
       </c>
@@ -4455,7 +4573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
@@ -4485,28 +4603,28 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="15.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="6"/>
-    <col min="13" max="13" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="2" width="9.21875" style="6"/>
+    <col min="3" max="3" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.21875" style="6"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4535,7 +4653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="str">
         <f>"*[_]"&amp;M4&amp;"[_]*"</f>
         <v>*[_]C01[_]*</v>
@@ -4555,7 +4673,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="str">
         <f t="shared" ref="C5:C13" si="0">"*[_]"&amp;M5&amp;"[_]*"</f>
         <v>*[_]C02[_]*</v>
@@ -4575,7 +4693,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C03[_]*</v>
@@ -4595,7 +4713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C04[_]*</v>
@@ -4615,7 +4733,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C05[_]*</v>
@@ -4635,7 +4753,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C06[_]*</v>
@@ -4655,7 +4773,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C07[_]*</v>
@@ -4675,7 +4793,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C08[_]*</v>
@@ -4695,7 +4813,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C09[_]*</v>
@@ -4715,7 +4833,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*[_]C10[_]*</v>
@@ -4735,7 +4853,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="str">
         <f>"*WON*[_]"&amp;M14&amp;"[_]*"</f>
         <v>*WON*[_]C1[_]*</v>
@@ -4755,7 +4873,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="str">
         <f t="shared" ref="C15:C22" si="3">"*WON*[_]"&amp;M15&amp;"[_]*"</f>
         <v>*WON*[_]C2[_]*</v>
@@ -4775,7 +4893,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C3[_]*</v>
@@ -4795,7 +4913,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C4[_]*</v>
@@ -4815,7 +4933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C5[_]*</v>
@@ -4835,7 +4953,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C6[_]*</v>
@@ -4855,7 +4973,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C7[_]*</v>
@@ -4875,7 +4993,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C8[_]*</v>
@@ -4895,7 +5013,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>*WON*[_]C9[_]*</v>
@@ -4915,7 +5033,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="8" t="str">
         <f t="shared" ref="C23:C31" si="5">"*WOF*[_]"&amp;M23&amp;"[_]*"</f>
         <v>*WOF*[_]C1[_]*</v>
@@ -4941,7 +5059,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C2[_]*</v>
@@ -4967,7 +5085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C3[_]*</v>
@@ -4993,7 +5111,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C4[_]*</v>
@@ -5019,7 +5137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C5[_]*</v>
@@ -5045,7 +5163,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C6[_]*</v>
@@ -5071,7 +5189,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C7[_]*</v>
@@ -5097,7 +5215,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C8[_]*</v>
@@ -5123,7 +5241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="8" t="str">
         <f t="shared" si="5"/>
         <v>*WOF*[_]C9[_]*</v>
@@ -5149,10 +5267,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="8"/>
     </row>
   </sheetData>
@@ -5166,24 +5284,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5212,7 +5330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>196</v>
       </c>
@@ -5235,7 +5353,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>192</v>
       </c>
@@ -5253,7 +5371,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>197</v>
       </c>
@@ -5276,7 +5394,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>193</v>
       </c>
@@ -5293,7 +5411,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>194</v>
       </c>
@@ -5310,7 +5428,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>199</v>
       </c>
@@ -5327,7 +5445,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>217</v>
       </c>
@@ -5350,7 +5468,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>218</v>
       </c>
@@ -5367,7 +5485,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>218</v>
       </c>
@@ -5384,7 +5502,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>223</v>
       </c>
@@ -5401,7 +5519,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>222</v>
       </c>
@@ -5418,7 +5536,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>216</v>
       </c>
